--- a/Excel/本地化数据_设置.xlsx
+++ b/Excel/本地化数据_设置.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tndhk\heros\end2\T\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAB512-8E12-4105-809E-CDEDEC21BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="521">
   <si>
     <t>备注</t>
   </si>
@@ -67,7 +73,7 @@
     <t>設定更改成功</t>
   </si>
   <si>
-    <t>Settings updated successfully</t>
+    <t>설정이 성공적으로 변경되었습니다</t>
   </si>
   <si>
     <t>Hotkey_RoamingMoveLeft</t>
@@ -79,7 +85,7 @@
     <t>向左上移動</t>
   </si>
   <si>
-    <t>Move to the top left</t>
+    <t>왼쪽 위로 이동</t>
   </si>
   <si>
     <t>Hotkey_RoamingMoveRight</t>
@@ -91,7 +97,7 @@
     <t>向右下移動</t>
   </si>
   <si>
-    <t>Move to the bottom right</t>
+    <t>오른쪽 아래로 이동</t>
   </si>
   <si>
     <t>Hotkey_RoamingMoveUp</t>
@@ -103,7 +109,7 @@
     <t>向右上移動</t>
   </si>
   <si>
-    <t>Move to the top right</t>
+    <t>오른쪽 위로 이동</t>
   </si>
   <si>
     <t>Hotkey_RoamingMoveDown</t>
@@ -115,7 +121,7 @@
     <t>向左下移動</t>
   </si>
   <si>
-    <t>Move to the bottom left</t>
+    <t>왼쪽 아래로 이동</t>
   </si>
   <si>
     <t>Hotkey_RoamingStealthSwitch</t>
@@ -127,7 +133,7 @@
     <t>潛行開關</t>
   </si>
   <si>
-    <t>Stealth Switch</t>
+    <t>잠행</t>
   </si>
   <si>
     <t>Hotkey_RoamingActiveBattle</t>
@@ -139,7 +145,7 @@
     <t>開啟戰鬥</t>
   </si>
   <si>
-    <t>Open battle</t>
+    <t>전투개시</t>
   </si>
   <si>
     <t>Hotkey_RoamingRole</t>
@@ -148,7 +154,7 @@
     <t>角色</t>
   </si>
   <si>
-    <t>Character</t>
+    <t>인물</t>
   </si>
   <si>
     <t>Hotkey_RoamingInventory</t>
@@ -157,7 +163,7 @@
     <t>物品</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>물품</t>
   </si>
   <si>
     <t>Hotkey_RoamingKungfu</t>
@@ -169,7 +175,7 @@
     <t>武學</t>
   </si>
   <si>
-    <t>Martial Arts</t>
+    <t>무학</t>
   </si>
   <si>
     <t>Hotkey_RoamingEnlightenment</t>
@@ -178,7 +184,7 @@
     <t>武道</t>
   </si>
   <si>
-    <t>Passive</t>
+    <t>무도</t>
   </si>
   <si>
     <t>Hotkey_RoamingAbility</t>
@@ -187,7 +193,7 @@
     <t>能力</t>
   </si>
   <si>
-    <t>Skill</t>
+    <t>능력</t>
   </si>
   <si>
     <t>Hotkey_RoamingRelation</t>
@@ -199,7 +205,7 @@
     <t>關係</t>
   </si>
   <si>
-    <t>Relations</t>
+    <t>관계</t>
   </si>
   <si>
     <t>Hotkey_RoamingQuest</t>
@@ -211,7 +217,7 @@
     <t>記事</t>
   </si>
   <si>
-    <t>Journal</t>
+    <t>임무</t>
   </si>
   <si>
     <t>Hotkey_RoamingNews</t>
@@ -223,7 +229,7 @@
     <t>江湖小報</t>
   </si>
   <si>
-    <t>Rivers and Lakes News</t>
+    <t>강호소식</t>
   </si>
   <si>
     <t>Hotkey_RoamingPet</t>
@@ -235,7 +241,7 @@
     <t>寵物</t>
   </si>
   <si>
-    <t>Pets.</t>
+    <t>애완동물</t>
   </si>
   <si>
     <t>Hotkey_RoamingEsc</t>
@@ -247,7 +253,7 @@
     <t>系統選單</t>
   </si>
   <si>
-    <t>System Menu</t>
+    <t>시스템 메뉴</t>
   </si>
   <si>
     <t>Hotkey_StorySkipStory</t>
@@ -259,7 +265,7 @@
     <t>跳過整段劇情</t>
   </si>
   <si>
-    <t>Skip the entire plot</t>
+    <t>줄거리 건너뛰기</t>
   </si>
   <si>
     <t>Hotkey_StorySkipDialogue</t>
@@ -271,7 +277,7 @@
     <t>跳過當前對白</t>
   </si>
   <si>
-    <t>Continue</t>
+    <t>대화 건너뛰기</t>
   </si>
   <si>
     <t>Hotkey_StoryOption1</t>
@@ -283,7 +289,7 @@
     <t>選項1</t>
   </si>
   <si>
-    <t>Option 1</t>
+    <t>옵션1</t>
   </si>
   <si>
     <t>Hotkey_StoryOption2</t>
@@ -295,7 +301,7 @@
     <t>選項2</t>
   </si>
   <si>
-    <t>Option 2</t>
+    <t>옵션2</t>
   </si>
   <si>
     <t>Hotkey_StoryOption3</t>
@@ -307,7 +313,7 @@
     <t>選項3</t>
   </si>
   <si>
-    <t>Option 3</t>
+    <t>옵션3</t>
   </si>
   <si>
     <t>Hotkey_StoryOption4</t>
@@ -319,7 +325,7 @@
     <t>選項4</t>
   </si>
   <si>
-    <t>Option 4</t>
+    <t>옵션4</t>
   </si>
   <si>
     <t>Hotkey_StoryOption5</t>
@@ -331,7 +337,7 @@
     <t>選項5</t>
   </si>
   <si>
-    <t>Option 5</t>
+    <t>옵션5</t>
   </si>
   <si>
     <t>Hotkey_StoryOption6</t>
@@ -343,7 +349,7 @@
     <t>選項6</t>
   </si>
   <si>
-    <t>Option 6</t>
+    <t>옵션6</t>
   </si>
   <si>
     <t>Hotkey_StoryOption7</t>
@@ -355,7 +361,7 @@
     <t>選項7</t>
   </si>
   <si>
-    <t>Option 7</t>
+    <t>옵션7</t>
   </si>
   <si>
     <t>Hotkey_StoryOption8</t>
@@ -367,7 +373,7 @@
     <t>選項8</t>
   </si>
   <si>
-    <t>Option 8</t>
+    <t>옵션8</t>
   </si>
   <si>
     <t>Hotkey_StealthSteal</t>
@@ -379,7 +385,7 @@
     <t>選擇暗取</t>
   </si>
   <si>
-    <t>Steal</t>
+    <t>절도</t>
   </si>
   <si>
     <t>Hotkey_StealthPoison</t>
@@ -391,7 +397,7 @@
     <t>選擇下毒</t>
   </si>
   <si>
-    <t>Poison</t>
+    <t>하독</t>
   </si>
   <si>
     <t>Hotkey_StealthParalyze</t>
@@ -403,7 +409,7 @@
     <t>選擇點穴</t>
   </si>
   <si>
-    <t>Immobilize</t>
+    <t>점혈</t>
   </si>
   <si>
     <t>Hotkey_StealthAssassin</t>
@@ -415,7 +421,7 @@
     <t>選擇突襲</t>
   </si>
   <si>
-    <t>Ambush</t>
+    <t>기습</t>
   </si>
   <si>
     <t>Hotkey_StealthConfirm</t>
@@ -427,7 +433,7 @@
     <t>確定互動</t>
   </si>
   <si>
-    <t>Confirm Interaction</t>
+    <t>상호작용</t>
   </si>
   <si>
     <t>Hotkey_QuickSave</t>
@@ -439,7 +445,7 @@
     <t>快速存檔</t>
   </si>
   <si>
-    <t>Quick save</t>
+    <t>빠른저장</t>
   </si>
   <si>
     <t>Hotkey_QuickLoad</t>
@@ -451,7 +457,7 @@
     <t>快速讀檔</t>
   </si>
   <si>
-    <t>Quick Load</t>
+    <t>빠른로드</t>
   </si>
   <si>
     <t>Hotkey_BattleEsc</t>
@@ -463,7 +469,7 @@
     <t>取消選中的武功</t>
   </si>
   <si>
-    <t>Deselect Martial Arts</t>
+    <t>선택된 무술 취소</t>
   </si>
   <si>
     <t>Hotkey_BattleUniqueSkill</t>
@@ -475,7 +481,7 @@
     <t>絕招</t>
   </si>
   <si>
-    <t>Ultimate Move</t>
+    <t>절기</t>
   </si>
   <si>
     <t>Hotkey_RoamingMeditation</t>
@@ -487,7 +493,7 @@
     <t>打坐（長按）</t>
   </si>
   <si>
-    <t>Meditate (Long Press)</t>
+    <t>명상 (길게누르기)</t>
   </si>
   <si>
     <t>Hotkey_RoamingMap</t>
@@ -499,7 +505,7 @@
     <t>地圖</t>
   </si>
   <si>
-    <t>Map</t>
+    <t>지도</t>
   </si>
   <si>
     <t>Hotkey_RoamingLog</t>
@@ -511,7 +517,7 @@
     <t>日常記錄</t>
   </si>
   <si>
-    <t>Daily Log</t>
+    <t>일일 기록</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu1</t>
@@ -520,7 +526,7 @@
     <t>武功1</t>
   </si>
   <si>
-    <t>Martial Art 1</t>
+    <t>무공1</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu2</t>
@@ -529,7 +535,7 @@
     <t>武功2</t>
   </si>
   <si>
-    <t>Martial Art 2</t>
+    <t>무공2</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu3</t>
@@ -538,7 +544,7 @@
     <t>武功3</t>
   </si>
   <si>
-    <t>Martial Art 3</t>
+    <t>무공3</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu4</t>
@@ -547,7 +553,7 @@
     <t>武功4</t>
   </si>
   <si>
-    <t>Martial Art 4</t>
+    <t>무공4</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu5</t>
@@ -556,7 +562,7 @@
     <t>武功5</t>
   </si>
   <si>
-    <t>Martial Art 5</t>
+    <t>무공5</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu6</t>
@@ -565,7 +571,7 @@
     <t>武功6</t>
   </si>
   <si>
-    <t>Martial Art 6</t>
+    <t>무공6</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu7</t>
@@ -574,7 +580,7 @@
     <t>武功7</t>
   </si>
   <si>
-    <t>Martial Art 7</t>
+    <t>무공7</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu8</t>
@@ -583,7 +589,7 @@
     <t>武功8</t>
   </si>
   <si>
-    <t>Martial Art 8</t>
+    <t>무공8</t>
   </si>
   <si>
     <t>Hotkey_BattleKungfu9</t>
@@ -592,7 +598,7 @@
     <t>武功9</t>
   </si>
   <si>
-    <t>Martial Art 9</t>
+    <t>무공9</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu1</t>
@@ -604,7 +610,7 @@
     <t>內功1</t>
   </si>
   <si>
-    <t>Inner Power 1</t>
+    <t>내공1</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu2</t>
@@ -616,7 +622,7 @@
     <t>內功2</t>
   </si>
   <si>
-    <t>Inner Power 2</t>
+    <t>내공2</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu3</t>
@@ -628,7 +634,7 @@
     <t>內功3</t>
   </si>
   <si>
-    <t>Inner Power 3</t>
+    <t>내공3</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu4</t>
@@ -640,7 +646,7 @@
     <t>內功4</t>
   </si>
   <si>
-    <t>Inner Power 4</t>
+    <t>내공4</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu5</t>
@@ -652,7 +658,7 @@
     <t>內功5</t>
   </si>
   <si>
-    <t>Inner Power 5</t>
+    <t>내공5</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu6</t>
@@ -664,7 +670,7 @@
     <t>內功6</t>
   </si>
   <si>
-    <t>Inner Power 6</t>
+    <t>내공6</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalKungfu7</t>
@@ -676,7 +682,7 @@
     <t>內功7</t>
   </si>
   <si>
-    <t>Inner Power 7</t>
+    <t>내공7</t>
   </si>
   <si>
     <t>Hotkey_BattleInternalEffect</t>
@@ -688,7 +694,7 @@
     <t>功體</t>
   </si>
   <si>
-    <t>Power Body</t>
+    <t>공체</t>
   </si>
   <si>
     <t>Hotkey_BattleHidWep</t>
@@ -697,7 +703,7 @@
     <t>暗器</t>
   </si>
   <si>
-    <t>Throwing</t>
+    <t>암기</t>
   </si>
   <si>
     <t>Hotkey_BattleItem</t>
@@ -709,7 +715,7 @@
     <t>休息</t>
   </si>
   <si>
-    <t>Rest</t>
+    <t>휴식</t>
   </si>
   <si>
     <t>Hotkey_BattleRetreat</t>
@@ -718,7 +724,7 @@
     <t>撤退</t>
   </si>
   <si>
-    <t>Retreat</t>
+    <t>퇴각</t>
   </si>
   <si>
     <t>Hotkey_BattleSwitchAuto</t>
@@ -730,7 +736,7 @@
     <t>自動戰鬥</t>
   </si>
   <si>
-    <t>Auto Battle</t>
+    <t>자동 전투</t>
   </si>
   <si>
     <t>Hotkey_BattleShowBattleZone</t>
@@ -742,7 +748,7 @@
     <t>檢視交戰範圍</t>
   </si>
   <si>
-    <t>Info Battle Range</t>
+    <t>교전 범위 보기</t>
   </si>
   <si>
     <t>Hotkey_BattleSwitchSpeed</t>
@@ -754,7 +760,7 @@
     <t>戰鬥速度切換</t>
   </si>
   <si>
-    <t>Toggle Battle Speed</t>
+    <t>전투 속도 전환</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem1</t>
@@ -763,7 +769,7 @@
     <t>快捷物品1</t>
   </si>
   <si>
-    <t>Quick Item 1</t>
+    <t>물품사용1</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem2</t>
@@ -772,7 +778,7 @@
     <t>快捷物品2</t>
   </si>
   <si>
-    <t>Quick Item 2</t>
+    <t>물품사용2</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem3</t>
@@ -781,7 +787,7 @@
     <t>快捷物品3</t>
   </si>
   <si>
-    <t>Quick Item 3</t>
+    <t>물품사용3</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem4</t>
@@ -790,7 +796,7 @@
     <t>快捷物品4</t>
   </si>
   <si>
-    <t>Quick Item 4</t>
+    <t>물품사용4</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem5</t>
@@ -799,7 +805,7 @@
     <t>快捷物品5</t>
   </si>
   <si>
-    <t>Quick Item 5</t>
+    <t>물품사용5</t>
   </si>
   <si>
     <t>Hotkey_BattleShortcutItem6</t>
@@ -808,7 +814,7 @@
     <t>快捷物品6</t>
   </si>
   <si>
-    <t>Quick Item 6</t>
+    <t>물품사용6</t>
   </si>
   <si>
     <t>Hotkey_BattleBondKungfu</t>
@@ -820,7 +826,7 @@
     <t>情緣武功</t>
   </si>
   <si>
-    <t>Love Martial Art</t>
+    <t>인연 무공</t>
   </si>
   <si>
     <t>Hotkey_BattleSwitchUniqueSkill</t>
@@ -832,7 +838,7 @@
     <t>切換絕招</t>
   </si>
   <si>
-    <t>Switch Ultimate Move</t>
+    <t>절기 전환</t>
   </si>
   <si>
     <t>HotkeyEnv_Roaming</t>
@@ -841,7 +847,7 @@
     <t>自由模式</t>
   </si>
   <si>
-    <t>Free Mode</t>
+    <t>자유 모드</t>
   </si>
   <si>
     <t>HotkeyEnv_Story</t>
@@ -853,7 +859,7 @@
     <t>劇情模式</t>
   </si>
   <si>
-    <t>Story Mode</t>
+    <t>이야기 모드</t>
   </si>
   <si>
     <t>HotkeyEnv_Stealth</t>
@@ -865,7 +871,7 @@
     <t>潛行模式</t>
   </si>
   <si>
-    <t>Stealth Mode</t>
+    <t>잠행 모드</t>
   </si>
   <si>
     <t>HotkeyEnv_Battle</t>
@@ -877,7 +883,7 @@
     <t>戰鬥模式</t>
   </si>
   <si>
-    <t>Battle Mode</t>
+    <t>전투 모드</t>
   </si>
   <si>
     <t>Setting</t>
@@ -889,7 +895,7 @@
     <t>設定</t>
   </si>
   <si>
-    <t>Settings</t>
+    <t>환경설정</t>
   </si>
   <si>
     <t>Setting_Game</t>
@@ -901,7 +907,7 @@
     <t>遊戲</t>
   </si>
   <si>
-    <t>Game</t>
+    <t>게임</t>
   </si>
   <si>
     <t>Setting_Audio</t>
@@ -913,7 +919,7 @@
     <t>聲音</t>
   </si>
   <si>
-    <t>Sound</t>
+    <t>소리</t>
   </si>
   <si>
     <t>Setting_Graphic</t>
@@ -925,7 +931,7 @@
     <t>影象</t>
   </si>
   <si>
-    <t>Graphics</t>
+    <t>그래픽</t>
   </si>
   <si>
     <t>Setting_Hotkey</t>
@@ -937,7 +943,7 @@
     <t>快捷鍵</t>
   </si>
   <si>
-    <t>Hotkeys</t>
+    <t>단축키</t>
   </si>
   <si>
     <t>Tab</t>
@@ -949,16 +955,13 @@
     <t>製表</t>
   </si>
   <si>
-    <t>Tabulation</t>
-  </si>
-  <si>
     <t>Hotkey_RoamingRun</t>
   </si>
   <si>
     <t>奔跑</t>
   </si>
   <si>
-    <t>Run</t>
+    <t>실행</t>
   </si>
   <si>
     <t>LeftShift</t>
@@ -970,9 +973,6 @@
     <t>上檔</t>
   </si>
   <si>
-    <t>Shift Up</t>
-  </si>
-  <si>
     <t>RightShift</t>
   </si>
   <si>
@@ -982,9 +982,6 @@
     <t>控制</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>RightControl</t>
   </si>
   <si>
@@ -997,9 +994,6 @@
     <t>換擋</t>
   </si>
   <si>
-    <t>Shift</t>
-  </si>
-  <si>
     <t>RightAlt</t>
   </si>
   <si>
@@ -1099,6 +1093,9 @@
     <t>*0</t>
   </si>
   <si>
+    <t>현재 관계는 최대 100까지 증가</t>
+  </si>
+  <si>
     <t>Keypad1</t>
   </si>
   <si>
@@ -1168,7 +1165,7 @@
     <t>請輸入按鍵（按ESC刪除快捷鍵）</t>
   </si>
   <si>
-    <t>Please Enter Key (Press ESC to Delete Shortcut)</t>
+    <t>키를 입력하세요(바로 가기를 삭제하려면 ESC를 누르세요)</t>
   </si>
   <si>
     <t>InvalidInput</t>
@@ -1180,7 +1177,7 @@
     <t>無效輸入</t>
   </si>
   <si>
-    <t>Invalid Input</t>
+    <t>잘못된 입력</t>
   </si>
   <si>
     <t>HotkeyConflictConfirm</t>
@@ -1192,7 +1189,7 @@
     <t>與【{0}】({1})按鍵衝突，點選確定將會刪除【{0}】的快捷鍵</t>
   </si>
   <si>
-    <t>Conflicts with the key {0} ({1}), clicking OK will delete the shortcut key of {0}</t>
+    <t>【{0}】({1}) 키와 충돌합니다. 확인을 누르면 【{0}】의 단축키가 삭제됩니다</t>
   </si>
   <si>
     <t>SettingNonSaveConfirm</t>
@@ -1201,7 +1198,7 @@
     <t>是否要保留更改？</t>
   </si>
   <si>
-    <t>Do you want to keep the changes?</t>
+    <t>변경 사항을 유지하시겠습니까?</t>
   </si>
   <si>
     <t>SettingTitle_Music</t>
@@ -1213,7 +1210,7 @@
     <t>背景音樂</t>
   </si>
   <si>
-    <t>BGM Volume</t>
+    <t>배경음악</t>
   </si>
   <si>
     <t>SettingTitle_Sfx</t>
@@ -1225,7 +1222,7 @@
     <t>遊戲音效</t>
   </si>
   <si>
-    <t>SFX Volume</t>
+    <t>게임 사운드</t>
   </si>
   <si>
     <t>SettingTitle_System</t>
@@ -1237,9 +1234,6 @@
     <t>系統音效</t>
   </si>
   <si>
-    <t>System sound effect.</t>
-  </si>
-  <si>
     <t>SettingTitle_DiaplayMode</t>
   </si>
   <si>
@@ -1249,7 +1243,7 @@
     <t>顯示模式</t>
   </si>
   <si>
-    <t>Display Mode</t>
+    <t>디스플레이</t>
   </si>
   <si>
     <t>SettingTitle_Resolution</t>
@@ -1261,7 +1255,7 @@
     <t>解析度選擇</t>
   </si>
   <si>
-    <t>Resolution Selection</t>
+    <t>해상도 선택</t>
   </si>
   <si>
     <t>ScreenDisplayMode_FullScreen</t>
@@ -1270,7 +1264,7 @@
     <t>全屏模式</t>
   </si>
   <si>
-    <t>Full Screen Mode</t>
+    <t>전체 화면 모드</t>
   </si>
   <si>
     <t>ScreenDisplayMode_Window</t>
@@ -1282,7 +1276,7 @@
     <t>視窗模式</t>
   </si>
   <si>
-    <t>Window Mode</t>
+    <t>창 모드</t>
   </si>
   <si>
     <t>ScreenDisplayMode_NoFrame</t>
@@ -1294,7 +1288,7 @@
     <t>無邊框視窗模式</t>
   </si>
   <si>
-    <t>Borderless Window Mode</t>
+    <t>경계 없는 창 모드</t>
   </si>
   <si>
     <t>SettingTitle_Language</t>
@@ -1306,7 +1300,7 @@
     <t>語言</t>
   </si>
   <si>
-    <t>Language</t>
+    <t>언어</t>
   </si>
   <si>
     <t>SettingTitle_AutoSaveInterval</t>
@@ -1318,7 +1312,7 @@
     <t>自動存檔時間</t>
   </si>
   <si>
-    <t>Auto Save Interval</t>
+    <t>자동 저장 시간</t>
   </si>
   <si>
     <t>SettingTitle_Font</t>
@@ -1330,7 +1324,7 @@
     <t>字型</t>
   </si>
   <si>
-    <t>Font</t>
+    <t>글꼴</t>
   </si>
   <si>
     <t>Font0</t>
@@ -1342,7 +1336,7 @@
     <t>畫素字型</t>
   </si>
   <si>
-    <t>Pixel Font</t>
+    <t>픽셀 글꼴</t>
   </si>
   <si>
     <t>Font1</t>
@@ -1354,7 +1348,7 @@
     <t>普通字型</t>
   </si>
   <si>
-    <t>Regular Font</t>
+    <t>일반 글꼴</t>
   </si>
   <si>
     <t>SettingValue_AutoSaveInterval</t>
@@ -1366,7 +1360,7 @@
     <t>{0}分鐘</t>
   </si>
   <si>
-    <t>{0} minutes</t>
+    <t>{0}분</t>
   </si>
   <si>
     <t>SettingTitle_ClickBattle</t>
@@ -1378,7 +1372,7 @@
     <t>快速切換潛行、戰鬥、跳過劇情</t>
   </si>
   <si>
-    <t>Quickly switch between stealth, combat, and skip scenes</t>
+    <t>잠행、전투、줄거리 건너뛰기</t>
   </si>
   <si>
     <t>SettingTitle_BulkTrading</t>
@@ -1390,7 +1384,7 @@
     <t>批次購買、出售、鑑定【物品數量需滿足5個】</t>
   </si>
   <si>
-    <t>Batch Buy, Sell, Appraise【Item quantity must be 5 or more】</t>
+    <t>대량 구매，판매，감정 【물품 수량 5개 만족 필요】</t>
   </si>
   <si>
     <t>SettingTitle_RunInBackground</t>
@@ -1402,7 +1396,7 @@
     <t>遊戲保持後臺執行</t>
   </si>
   <si>
-    <t>Game run in background</t>
+    <t>게임이 백그라운드에서 실행</t>
   </si>
   <si>
     <t>SettingTitle_ClickStoryOption</t>
@@ -1414,7 +1408,7 @@
     <t>快速選擇劇情選項</t>
   </si>
   <si>
-    <t>Quickly select plot options</t>
+    <t>빠른 옵션 선택</t>
   </si>
   <si>
     <t>SettingTitle_PressMouseRun</t>
@@ -1426,7 +1420,7 @@
     <t>使用滑鼠移動時，預設移動方式為跑</t>
   </si>
   <si>
-    <t>When moving with the mouse, the default movement mode is running</t>
+    <t>마우스 사용 이동 시 기본은 달리기입니다</t>
   </si>
   <si>
     <t>SettingTitle_KeyForceRun</t>
@@ -1438,7 +1432,7 @@
     <t>使用快捷鍵移動時，預設移動方式為跑</t>
   </si>
   <si>
-    <t>When moving with shortcut keys, the default movement mode is running</t>
+    <t>단축키 이동 시 기본은 달리기입니다</t>
   </si>
   <si>
     <t>SettingTitle_UseConsumableReconfirm</t>
@@ -1450,7 +1444,7 @@
     <t>使用消耗品時需再次確認</t>
   </si>
   <si>
-    <t>Confirmation required when using consumables</t>
+    <t>소모품 사용 시 재확인 필요</t>
   </si>
   <si>
     <t>SettingTitle_BulkUseComsumable</t>
@@ -1462,7 +1456,7 @@
     <t>使用部分消耗品時可批次使用</t>
   </si>
   <si>
-    <t>Batch use available for some consumables</t>
+    <t>일부 소모품 사용 시 대량 사용 가능</t>
   </si>
   <si>
     <t>SettingTitle_AutoBattleWhenStart</t>
@@ -1474,7 +1468,7 @@
     <t>戰鬥開啟後預設開啟自動戰鬥</t>
   </si>
   <si>
-    <t>Automatically start combat after battle starts</t>
+    <t>전투 시작 후 자동 전투 개시</t>
   </si>
   <si>
     <t>SettingTitle_DoubleSpeedWhenStart</t>
@@ -1486,7 +1480,7 @@
     <t>戰鬥開啟後預設開啟2倍速</t>
   </si>
   <si>
-    <t>2x speed is the default after battle starts</t>
+    <t>전투 시작 후 기본 2배속 상태</t>
   </si>
   <si>
     <t>SettingTitle_EpAndAccuAtkVisible</t>
@@ -1498,7 +1492,7 @@
     <t>戰鬥開啟後內力、怒氣持續顯示</t>
   </si>
   <si>
-    <t>MP, Rage continuously displayed after battle starts</t>
+    <t>전투 시작 후 내력，노기 지속 표시</t>
   </si>
   <si>
     <t>SettingTitle_HpBarResident</t>
@@ -1510,7 +1504,7 @@
     <t>戰鬥開啟後生命持續顯示</t>
   </si>
   <si>
-    <t>HP continuously displayed after battle starts</t>
+    <t>전투 시작 후 생명 지속 표시</t>
   </si>
   <si>
     <t>SettingTitle_OneTouchBuyFromHighToLow</t>
@@ -1522,7 +1516,7 @@
     <t>一鍵購買根據品級由高到低的順序進行購買</t>
   </si>
   <si>
-    <t>One-click buy in order from high to low grade</t>
+    <t>높은 등급에서 낮은 등급 순으로 원클릭 구매</t>
   </si>
   <si>
     <t>SettingTitle_OneTouchSellFromLowToHigh</t>
@@ -1534,7 +1528,7 @@
     <t>一鍵出售根據品級由低到高的順序進行出售</t>
   </si>
   <si>
-    <t>One-click sell in order from low to high grade</t>
+    <t>낮은 등급에서 높은 등급 순으로 원클릭 판매</t>
   </si>
   <si>
     <t>SettingTitle_AutoSave</t>
@@ -1546,7 +1540,7 @@
     <t>開啟自動存檔（僅切換場景和戰鬥結算時存檔）</t>
   </si>
   <si>
-    <t>Enable auto-save (only saves when switching scenes and after battles)</t>
+    <t>자동 저장 열기 (장면 전환 및 전투 후에만 저장)</t>
   </si>
   <si>
     <t>SettingTitle_AutoSaveWhenChangeSceneAndRoaming</t>
@@ -1558,7 +1552,7 @@
     <t>自由狀態下每10分鐘進行一次存檔（需要開啟自動存檔才能選擇）</t>
   </si>
   <si>
-    <t>Save every 10 minutes in free state (requires auto-save to be enabled)</t>
+    <t>자유 상태에서 10분마다 저장 수행 (자동 저장 활성화시)</t>
   </si>
   <si>
     <t>SettingTitle_CloseLivingExpConfirmTip</t>
@@ -1570,7 +1564,7 @@
     <t>使用江湖歷練提升角色和武功等級時關閉確認提示</t>
   </si>
   <si>
-    <t>Enable auto-confirmation for using Jianghu knowledge to upgrade character and martial arts level</t>
+    <t>강호 시련을 사용하여 인물과 무공 등급 승급 시 자동 확인 활성화</t>
   </si>
   <si>
     <t>SettingTitle_JoyStickVibration</t>
@@ -1582,39 +1576,40 @@
     <t>手柄震動</t>
   </si>
   <si>
-    <t>Joystick vibration</t>
+    <t>조이스틱 진동</t>
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>시스템 음향</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1624,324 +1619,28 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1993,492 +1692,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="6" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="11" applyFill="1" borderId="9" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="11" applyFill="1" borderId="5" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="10" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2491,6 +1783,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2748,2668 +2043,2669 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="E108" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="50"/>
-    <col min="2" max="2" width="22.2166666666667" customWidth="1" style="50"/>
-    <col min="3" max="3" width="34.775" customWidth="1" style="51"/>
-    <col min="4" max="4" width="107.216666666667" customWidth="1" style="52"/>
-    <col min="5" max="5" width="43.1083333333333" customWidth="1" style="51"/>
-    <col min="6" max="6" width="56.875" customWidth="1" style="49"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1" style="53"/>
-    <col min="8" max="8" width="15.775" customWidth="1" style="53"/>
-    <col min="9" max="9" width="17.3333333333333" customWidth="1" style="53"/>
-    <col min="10" max="10" width="15.1083333333333" customWidth="1" style="53"/>
-    <col min="11" max="11" width="14.775" customWidth="1" style="53"/>
-    <col min="12" max="12" width="14.3333333333333" customWidth="1" style="53"/>
-    <col min="13" max="13" width="19.2166666666667" customWidth="1" style="53"/>
-    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="53"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="53"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="107.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.8984375" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.296875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.8984375" style="4" customWidth="1"/>
+    <col min="15" max="16" width="9" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="59" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="62" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="51" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="51" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="51" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="51" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="51" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="51" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="51" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="51" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="51" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="51" t="s">
+    <row r="15" spans="1:6">
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="51" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="51" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="51" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="51" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="51" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="51" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="51" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="51" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="51" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="51" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="51" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="51" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="51" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="51" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="51" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="51" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="51" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="51" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="51" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="51" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="51" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="51" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="51" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="51" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="51" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="51" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="51" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="51" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="51" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="51" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="51" t="s">
+    <row r="46" spans="2:6">
+      <c r="B46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="51" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="51" t="s">
+    <row r="48" spans="2:6">
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="51" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="51" t="s">
+    <row r="50" spans="2:6">
+      <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="51" t="s">
+    <row r="51" spans="2:6">
+      <c r="B51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="51" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="51" t="s">
+    <row r="53" spans="2:6">
+      <c r="B53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="51" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="51" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="51" t="s">
+    <row r="56" spans="2:6">
+      <c r="B56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="51" t="s">
+    <row r="57" spans="2:6">
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="51" t="s">
+    <row r="58" spans="2:6">
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="51" t="s">
+    <row r="59" spans="2:6">
+      <c r="B59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="51" t="s">
+    <row r="60" spans="2:6">
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="51" t="s">
+    <row r="61" spans="2:6">
+      <c r="B61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="51" t="s">
+    <row r="62" spans="2:6">
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="51" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="51" t="s">
+    <row r="64" spans="2:6">
+      <c r="B64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="51" t="s">
+    <row r="65" spans="2:6">
+      <c r="B65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="51" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="51" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="E67" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="51" t="s">
+    <row r="68" spans="2:6">
+      <c r="B68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="51" t="s">
+    <row r="69" spans="2:6">
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="51" t="s">
+    <row r="70" spans="2:6">
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D70" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E70" s="51" t="s">
+      <c r="E70" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="51" t="s">
+    <row r="71" spans="2:6">
+      <c r="B71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F71" s="49" t="s">
+      <c r="F71" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="51" t="s">
+    <row r="72" spans="2:6">
+      <c r="B72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="51" t="s">
+    <row r="73" spans="2:6">
+      <c r="B73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F73" s="49" t="s">
+      <c r="F73" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="51" t="s">
+    <row r="74" spans="2:6">
+      <c r="B74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="51" t="s">
+    <row r="75" spans="2:6">
+      <c r="B75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="51" t="s">
+      <c r="E75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="76">
-      <c r="B76" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="51" t="s">
+    <row r="76" spans="2:6">
+      <c r="B76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="51" t="s">
+    <row r="77" spans="2:6">
+      <c r="B77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F77" s="49" t="s">
+      <c r="F77" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="51" t="s">
+    <row r="78" spans="2:6">
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F78" s="49" t="s">
+      <c r="F78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="51" t="s">
+    <row r="79" spans="2:6">
+      <c r="B79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E79" s="51" t="s">
+      <c r="E79" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F79" s="49" t="s">
+      <c r="F79" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80">
-      <c r="B80" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="51" t="s">
+    <row r="80" spans="2:6">
+      <c r="B80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="51" t="s">
+      <c r="E80" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="51" t="s">
+    <row r="81" spans="2:6">
+      <c r="B81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="51" t="s">
+    <row r="82" spans="2:6">
+      <c r="B82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D82" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E82" s="51" t="s">
+      <c r="E82" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F82" s="49" t="s">
+      <c r="F82" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="51" t="s">
+    <row r="83" spans="2:6">
+      <c r="B83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E83" s="51" t="s">
+      <c r="E83" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="49" t="s">
+      <c r="F83" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="51" t="s">
+    <row r="84" spans="2:6">
+      <c r="B84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E84" s="51" t="s">
+      <c r="E84" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="E85" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" t="s">
         <v>313</v>
       </c>
-      <c r="E85" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" s="49" t="s">
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="51" t="s">
+      <c r="D86" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="E86" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="F86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F86" s="49" t="s">
+      <c r="D87" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="51" t="s">
+      <c r="D88" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D87" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="F87" s="49" t="s">
+      <c r="E88" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="51" t="s">
+    <row r="89" spans="2:6">
+      <c r="B89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="52" t="s">
+      <c r="D89" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="D90" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F90" t="s">
         <v>321</v>
       </c>
-      <c r="F88" s="49" t="s">
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="51" t="s">
+      <c r="E91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="F91" t="s">
         <v>321</v>
       </c>
-      <c r="E89" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="52" t="s">
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E90" s="51" t="s">
+      <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="E92" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="51" t="s">
+      <c r="D93" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D91" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E91" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="F91" s="49" t="s">
+      <c r="E93" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="92">
-      <c r="B92" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="51" t="s">
+    <row r="94" spans="2:6">
+      <c r="B94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D94" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F92" s="49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="51" t="s">
+      <c r="E96" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="F96" t="s">
         <v>332</v>
       </c>
-      <c r="E93" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F93" s="49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="E94" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="F94" s="49" t="s">
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="51" t="s">
+      <c r="D97" s="18">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D98" s="18">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="51" t="s">
+      <c r="F98" t="s">
         <v>338</v>
       </c>
-      <c r="F95" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="51" t="s">
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D96" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="E96" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="F96" s="49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="66" t="s">
+      <c r="D99" s="18">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D97" s="67">
-        <v>0</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="66" t="s">
+      <c r="F99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D98" s="67">
-        <v>1</v>
-      </c>
-      <c r="E98" s="51" t="s">
+      <c r="D100" s="18">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F98" s="49" t="s">
+      <c r="F100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="66" t="s">
+    <row r="101" spans="2:6">
+      <c r="B101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D99" s="67">
-        <v>2</v>
-      </c>
-      <c r="E99" s="51" t="s">
+      <c r="D101" s="18">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F101" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100">
-      <c r="B100" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="66" t="s">
+    <row r="102" spans="2:6">
+      <c r="B102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D100" s="67">
-        <v>3</v>
-      </c>
-      <c r="E100" s="51" t="s">
+      <c r="D102" s="18">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F102" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="66" t="s">
+    <row r="103" spans="2:6">
+      <c r="B103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D101" s="67">
-        <v>4</v>
-      </c>
-      <c r="E101" s="51" t="s">
+      <c r="D103" s="18">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F103" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="102">
-      <c r="B102" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="66" t="s">
+    <row r="104" spans="2:6">
+      <c r="B104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D102" s="67">
-        <v>5</v>
-      </c>
-      <c r="E102" s="51" t="s">
+      <c r="D104" s="18">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F102" s="49" t="s">
+      <c r="F104" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="103">
-      <c r="B103" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="66" t="s">
+    <row r="105" spans="2:6">
+      <c r="B105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D103" s="67">
-        <v>6</v>
-      </c>
-      <c r="E103" s="51" t="s">
+      <c r="D105" s="18">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F103" s="49" t="s">
+      <c r="F105" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="104">
-      <c r="B104" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="66" t="s">
+    <row r="106" spans="2:6">
+      <c r="B106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D104" s="67">
-        <v>7</v>
-      </c>
-      <c r="E104" s="51" t="s">
+      <c r="D106" s="18">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F104" s="49" t="s">
+      <c r="F106" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="105">
-      <c r="B105" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="66" t="s">
+    <row r="107" spans="2:6">
+      <c r="B107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D105" s="67">
-        <v>8</v>
-      </c>
-      <c r="E105" s="51" t="s">
+      <c r="D107" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F105" s="49" t="s">
+      <c r="E107" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="66" t="s">
+      <c r="F107" t="s">
         <v>357</v>
       </c>
-      <c r="D106" s="67">
-        <v>9</v>
-      </c>
-      <c r="E106" s="51" t="s">
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F106" s="49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="51" t="s">
+      <c r="D108" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="E108" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E107" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="F107" s="49" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="51" t="s">
+      <c r="D109" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D108" s="52" t="s">
+      <c r="E109" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E108" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="F108" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="51" t="s">
+      <c r="D110" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="E110" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E109" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="F109" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="51" t="s">
+      <c r="D111" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="E111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E110" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="F110" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="51" t="s">
+      <c r="D112" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="E112" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E111" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="F111" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="51" t="s">
+      <c r="D113" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="E113" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E112" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="F112" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="51" t="s">
+      <c r="D114" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D113" s="52" t="s">
+      <c r="E114" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E113" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="F113" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="51" t="s">
+      <c r="D115" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D114" s="52" t="s">
+      <c r="E115" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E114" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="F114" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="51" t="s">
+      <c r="D116" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="E116" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E115" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="F115" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="51" t="s">
+      <c r="D117" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="E117" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E116" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="F116" s="49" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="51" t="s">
+      <c r="D118" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="E118" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E117" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="F117" s="49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="51" t="s">
+      <c r="F118" t="s">
         <v>381</v>
       </c>
-      <c r="D118" s="52" t="s">
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E118" s="51" t="s">
+      <c r="D119" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="E119" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="51" t="s">
+      <c r="F119" t="s">
         <v>385</v>
       </c>
-      <c r="D119" s="52" t="s">
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E119" s="51" t="s">
+      <c r="D120" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="E120" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="51" t="s">
+      <c r="F120" t="s">
         <v>389</v>
       </c>
-      <c r="D120" s="63" t="s">
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E120" s="51" t="s">
+      <c r="D121" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="F120" s="49" t="s">
+      <c r="E121" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="51" t="s">
+    <row r="122" spans="2:6">
+      <c r="B122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D121" s="63" t="s">
+      <c r="D122" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E121" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="F121" s="49" t="s">
+      <c r="E122" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="51" t="s">
+      <c r="F122" t="s">
         <v>396</v>
       </c>
-      <c r="D122" s="52" t="s">
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E122" s="51" t="s">
+      <c r="D123" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F122" s="49" t="s">
+      <c r="E123" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="51" t="s">
+      <c r="F123" t="s">
         <v>400</v>
       </c>
-      <c r="D123" s="52" t="s">
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E123" s="51" t="s">
+      <c r="D124" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F123" s="49" t="s">
+      <c r="E124" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="51" t="s">
+      <c r="F124" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D124" s="52" t="s">
+      <c r="D125" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E124" s="51" t="s">
+      <c r="E125" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F124" s="49" t="s">
+      <c r="F125" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="51" t="s">
+    <row r="126" spans="2:6">
+      <c r="B126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D125" s="52" t="s">
+      <c r="D126" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E125" s="51" t="s">
+      <c r="E126" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F125" s="49" t="s">
+      <c r="F126" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="51" t="s">
+    <row r="127" spans="2:6">
+      <c r="B127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D127" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E126" s="51" t="s">
+      <c r="E127" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F127" t="s">
         <v>414</v>
       </c>
-      <c r="F126" s="49" t="s">
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="B127" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" s="51" t="s">
+      <c r="D128" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D127" s="52" t="s">
+      <c r="E128" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E127" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="F127" s="49" t="s">
+      <c r="F128" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="51" t="s">
+    <row r="129" spans="2:6">
+      <c r="B129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D128" s="52" t="s">
+      <c r="D129" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E128" s="51" t="s">
+      <c r="E129" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F128" s="49" t="s">
+      <c r="F129" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="51" t="s">
+    <row r="130" spans="2:6">
+      <c r="B130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D129" s="52" t="s">
+      <c r="D130" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E129" s="51" t="s">
+      <c r="E130" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F129" s="49" t="s">
+      <c r="F130" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="130">
-      <c r="B130" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="51" t="s">
+    <row r="131" spans="2:6">
+      <c r="B131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D130" s="52" t="s">
+      <c r="D131" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E130" s="51" t="s">
+      <c r="E131" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F130" s="49" t="s">
+      <c r="F131" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131">
-      <c r="B131" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="51" t="s">
+    <row r="132" spans="2:6">
+      <c r="B132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D131" s="52" t="s">
+      <c r="D132" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E131" s="51" t="s">
+      <c r="E132" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F131" s="49" t="s">
+      <c r="F132" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="132">
-      <c r="B132" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="51" t="s">
+    <row r="133" spans="2:6">
+      <c r="B133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D132" s="52" t="s">
+      <c r="D133" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E132" s="51" t="s">
+      <c r="E133" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F132" s="49" t="s">
+      <c r="F133" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="133">
-      <c r="B133" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="51" t="s">
+    <row r="134" spans="2:6">
+      <c r="B134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D133" s="52" t="s">
+      <c r="D134" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E133" s="51" t="s">
+      <c r="E134" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F133" s="49" t="s">
+      <c r="F134" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="134">
-      <c r="B134" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="51" t="s">
+    <row r="135" spans="2:6">
+      <c r="B135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D134" s="52" t="s">
+      <c r="D135" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E134" s="51" t="s">
+      <c r="E135" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F135" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="135">
-      <c r="B135" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="51" t="s">
+    <row r="136" spans="2:6">
+      <c r="B136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D135" s="52" t="s">
+      <c r="D136" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E135" s="51" t="s">
+      <c r="E136" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F135" s="49" t="s">
+      <c r="F136" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="136">
-      <c r="B136" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="51" t="s">
+    <row r="137" spans="2:6">
+      <c r="B137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D136" s="52" t="s">
+      <c r="D137" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E136" s="51" t="s">
+      <c r="E137" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F136" s="49" t="s">
+      <c r="F137" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" s="51" t="s">
+    <row r="138" spans="2:6">
+      <c r="B138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D137" s="52" t="s">
+      <c r="D138" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E137" s="51" t="s">
+      <c r="E138" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F137" s="49" t="s">
+      <c r="F138" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="138">
-      <c r="B138" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="51" t="s">
+    <row r="139" spans="2:6">
+      <c r="B139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D138" s="52" t="s">
+      <c r="D139" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E138" s="51" t="s">
+      <c r="E139" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F138" s="49" t="s">
+      <c r="F139" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="139">
-      <c r="B139" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="51" t="s">
+    <row r="140" spans="2:6">
+      <c r="B140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D139" s="52" t="s">
+      <c r="D140" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E139" s="51" t="s">
+      <c r="E140" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F139" s="49" t="s">
+      <c r="F140" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="140">
-      <c r="B140" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="51" t="s">
+    <row r="141" spans="2:6">
+      <c r="B141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D140" s="52" t="s">
+      <c r="D141" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E140" s="51" t="s">
+      <c r="E141" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F140" s="49" t="s">
+      <c r="F141" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="141">
-      <c r="B141" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" s="51" t="s">
+    <row r="142" spans="2:6">
+      <c r="B142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D141" s="52" t="s">
+      <c r="D142" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E141" s="51" t="s">
+      <c r="E142" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F141" s="49" t="s">
+      <c r="F142" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142">
-      <c r="B142" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" s="51" t="s">
+    <row r="143" spans="2:6">
+      <c r="B143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D142" s="52" t="s">
+      <c r="D143" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E142" s="51" t="s">
+      <c r="E143" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F142" s="49" t="s">
+      <c r="F143" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="143">
-      <c r="B143" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="51" t="s">
+    <row r="144" spans="2:6">
+      <c r="B144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D143" s="63" t="s">
+      <c r="D144" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E143" s="51" t="s">
+      <c r="E144" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F143" s="49" t="s">
+      <c r="F144" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="144">
-      <c r="B144" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="51" t="s">
+    <row r="145" spans="1:6">
+      <c r="B145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D144" s="52" t="s">
+      <c r="D145" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E144" s="51" t="s">
+      <c r="E145" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F144" s="49" t="s">
+      <c r="F145" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="145">
-      <c r="B145" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="51" t="s">
+    <row r="146" spans="1:6">
+      <c r="B146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D146" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E145" s="51" t="s">
+      <c r="E146" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F145" s="49" t="s">
+      <c r="F146" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="146">
-      <c r="B146" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="51" t="s">
+    <row r="147" spans="1:6">
+      <c r="B147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D146" s="52" t="s">
+      <c r="D147" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E146" s="51" t="s">
+      <c r="E147" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F146" s="49" t="s">
+      <c r="F147" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="147">
-      <c r="B147" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" s="51" t="s">
+    <row r="148" spans="1:6">
+      <c r="B148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D147" s="52" t="s">
+      <c r="D148" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E147" s="51" t="s">
+      <c r="E148" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F147" s="49" t="s">
+      <c r="F148" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="148">
-      <c r="B148" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="51" t="s">
+    <row r="149" spans="1:6">
+      <c r="B149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D148" s="52" t="s">
+      <c r="D149" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E148" s="51" t="s">
+      <c r="E149" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F148" s="49" t="s">
+      <c r="F149" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="149">
-      <c r="B149" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="51" t="s">
+    <row r="150" spans="1:6">
+      <c r="B150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D149" s="52" t="s">
+      <c r="D150" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E149" s="51" t="s">
+      <c r="E150" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F149" s="49" t="s">
+      <c r="F150" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="150">
-      <c r="B150" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="51" t="s">
+    <row r="151" spans="1:6">
+      <c r="B151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D150" s="52" t="s">
+      <c r="D151" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E150" s="51" t="s">
+      <c r="E151" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F150" s="49" t="s">
+      <c r="F151" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="151">
-      <c r="B151" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" s="51" t="s">
+    <row r="152" spans="1:6">
+      <c r="B152" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D151" s="52" t="s">
+      <c r="D152" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E151" s="51" t="s">
+      <c r="E152" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F151" s="49" t="s">
+      <c r="F152" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="152">
-      <c r="B152" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="51" t="s">
+    <row r="153" spans="1:6">
+      <c r="B153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D152" s="52" t="s">
+      <c r="D153" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E153" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F152" s="49" t="s">
+      <c r="F153" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="153">
-      <c r="B153" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="51" t="s">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D153" s="52" t="s">
-        <v>520</v>
-      </c>
-      <c r="E153" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="F153" s="49" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="50" t="s">
-        <v>523</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C13 C14:D25 C26:C27 C28:D30 C31:C151 C154:C1048576 D9:D13">
+    <cfRule type="duplicateValues" dxfId="3" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152:C153">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C13 D9:D13 C14:D25 C26:C27 C28:D30 C31:C151 C154:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E8 E9:E124 D31:D122 D26:D27 D125:E151 D154:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+  <conditionalFormatting sqref="D5:E8 D26:D27 D31:D122 D125:E151 D154:E1048576 E9:E124">
+    <cfRule type="duplicateValues" dxfId="1" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:E153">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>